--- a/Past Exams/Exam Aids/Rogue Vector Example.xlsx
+++ b/Past Exams/Exam Aids/Rogue Vector Example.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\lab\Rob Sheehy\Games Development\In Class\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lt00036625\Desktop\GD22\Past Exams\Exam Aids\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859A183E-FE93-4D28-8242-0F874BC8A58E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Rogue Kill" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -120,7 +121,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -191,26 +192,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -246,7 +247,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="\mathbf A\cdot\mathbf B = \|\mathbf A\|\,\|\mathbf B\|\cos\theta,"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="\mathbf A\cdot\mathbf B = \|\mathbf A\|\,\|\mathbf B\|\cos\theta,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -551,11 +558,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,17 +689,17 @@
       <c r="B13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="1">
         <f>B12</f>
         <v>-5</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -700,13 +707,13 @@
       <c r="B14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9">
+      <c r="C14" s="12"/>
+      <c r="D14" s="7">
         <f>D12*F12</f>
         <v>48.538644398046387</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D16">
@@ -718,6 +725,12 @@
       </c>
       <c r="F16" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f>DEGREES(ACOS(D16))</f>
+        <v>95.912566853066608</v>
       </c>
     </row>
   </sheetData>
@@ -733,244 +746,244 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView topLeftCell="B9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="9" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="26.140625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
     </row>
     <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="E4" s="8" t="s">
+      <c r="A4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="E4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="I4" s="8" t="s">
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="I4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="M4" s="8" t="s">
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="M4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
       <c r="Q4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="C5" s="12" t="s">
+      <c r="A5" s="9"/>
+      <c r="C5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="8">
+        <v>7</v>
+      </c>
+      <c r="F5" s="8">
+        <v>-2</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <v>2</v>
+      </c>
+      <c r="J5" s="8">
         <v>3</v>
       </c>
-      <c r="F5" s="11">
-        <v>4</v>
-      </c>
-      <c r="G5" s="11">
-        <v>5</v>
-      </c>
-      <c r="I5" s="11">
-        <v>-3</v>
-      </c>
-      <c r="J5" s="11">
-        <v>1</v>
-      </c>
-      <c r="K5" s="11">
-        <v>-4</v>
+      <c r="K5" s="8">
+        <v>6</v>
       </c>
       <c r="M5" s="1">
         <f>I5/$Q5</f>
-        <v>-0.58834840541455213</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" ref="N5:O5" si="0">J5/$Q5</f>
-        <v>0.19611613513818404</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="0"/>
-        <v>-0.78446454055273618</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="Q5" s="1">
         <f>SQRT(I5*I5+J5*J5+K5*K5)</f>
-        <v>5.0990195135927845</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="C6" s="12" t="s">
+      <c r="A6" s="9"/>
+      <c r="C6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="11">
-        <v>1</v>
-      </c>
-      <c r="F6" s="11">
+      <c r="E6" s="8">
         <v>3</v>
       </c>
-      <c r="G6" s="11">
-        <v>1</v>
-      </c>
-      <c r="I6" s="11">
-        <v>-6</v>
-      </c>
-      <c r="J6" s="11">
-        <v>4</v>
-      </c>
-      <c r="K6" s="11">
-        <v>1</v>
+      <c r="F6" s="8">
+        <v>2</v>
+      </c>
+      <c r="G6" s="8">
+        <v>7</v>
+      </c>
+      <c r="I6" s="8">
+        <v>-2</v>
+      </c>
+      <c r="J6" s="8">
+        <v>2</v>
+      </c>
+      <c r="K6" s="8">
+        <v>-1</v>
       </c>
       <c r="M6" s="1">
         <f>I6/$Q6</f>
-        <v>-0.82416338369213415</v>
+        <v>-0.66666666666666663</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" ref="N6" si="1">J6/$Q6</f>
-        <v>0.54944225579475614</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" ref="O6" si="2">K6/$Q6</f>
-        <v>0.13736056394868904</v>
+        <v>-0.33333333333333331</v>
       </c>
       <c r="Q6" s="1">
         <f>SQRT(I6*I6+J6*J6+K6*K6)</f>
-        <v>7.2801098892805181</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="C7" s="12"/>
+      <c r="A7" s="9"/>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="C8" s="12" t="s">
+      <c r="A8" s="9"/>
+      <c r="C8" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="C9" s="12"/>
+      <c r="A9" s="9"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="C10" s="12"/>
+      <c r="A10" s="9"/>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="1" t="str">
         <f xml:space="preserve"> IF(Q11&lt;E8,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="1">
         <f>E6-E5</f>
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" ref="F11:G11" si="3">F6-F5</f>
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="3"/>
-        <v>-4</v>
+        <v>7</v>
       </c>
       <c r="Q11" s="1">
         <f>SQRT(E11*E11+F11*F11+G11*G11)</f>
-        <v>4.5825756949558398</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="C12" s="12"/>
+      <c r="A12" s="9"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="C14" s="10" t="s">
+      <c r="A14" s="9"/>
+      <c r="C14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="1" t="str">
@@ -980,7 +993,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1">
         <f>E11*I5+F11*J5+G11*K5</f>
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1004,7 +1017,7 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1"/>
@@ -1015,18 +1028,18 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="1" t="str">
@@ -1036,7 +1049,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1">
         <f>E11*I6+F11*J6+G11*K6</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1045,12 +1058,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C19:I19"/>
     <mergeCell ref="C1:P3"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="M4:O4"/>
     <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C19:I19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
